--- a/src/main/resources/data/graphBuildCase.xlsx
+++ b/src/main/resources/data/graphBuildCase.xlsx
@@ -10405,11 +10405,11 @@
   <dimension ref="A1:E223"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C130" sqref="C130"/>
+      <selection pane="bottomRight" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="4"/>
@@ -14189,7 +14189,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E223"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
   <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
